--- a/Project Planning/Skills Audit/Team Skill Audit/Team Skills Audit.xlsx
+++ b/Project Planning/Skills Audit/Team Skill Audit/Team Skills Audit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\L5\Semester-2\MANA541 - Project Management - 14805 - WIN - 201910\The-Clehuderfax-e-chain\Project Planning\Skills Audit\Team Skill Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEB5811-BD62-4433-B0E7-17897557F42A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3736D5-45AD-4488-B607-257C490A2F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="3330" windowWidth="23640" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1088,8 +1088,8 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1202,7 +1202,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="4">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>46</v>
@@ -1256,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>48</v>
@@ -1310,7 +1310,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="4">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>49</v>
@@ -1337,7 +1337,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="4">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>50</v>
@@ -1364,7 +1364,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="4">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>49</v>
@@ -1418,7 +1418,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="4">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>45</v>
@@ -1445,7 +1445,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="4">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>44</v>
@@ -1472,7 +1472,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="4">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>43</v>
@@ -1498,7 +1498,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="4">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>44</v>
@@ -1524,7 +1524,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="4">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>42</v>
@@ -1550,7 +1550,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="4">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>52</v>
@@ -1576,7 +1576,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="4">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>50</v>
@@ -1602,7 +1602,7 @@
         <v>37</v>
       </c>
       <c r="C22" s="4">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>53</v>
@@ -1628,7 +1628,7 @@
         <v>36</v>
       </c>
       <c r="C23" s="4">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>50</v>
